--- a/ArduinoTrack Flex/BOM.xlsx
+++ b/ArduinoTrack Flex/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15da9958d5653d7c/Git/ArduinoTrack-Flex-Hardware/ArduinoTrack Flex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\OneDrive\Git\ArduinoTrack-Flex-Hardware\ArduinoTrack Flex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{615FBA8C-C165-410E-A92A-FFBAFD9CAAFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{615FBA8C-C165-410E-A92A-FFBAFD9CAAFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{400609CF-F8EA-405A-979A-88830B5FF55B}"/>
   </bookViews>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O35">
     <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
